--- a/biology/Zoologie/Hamster_nain/Hamster_nain.xlsx
+++ b/biology/Zoologie/Hamster_nain/Hamster_nain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'expression « hamster nain » est un nom vernaculaire ambigu en français, pouvant désigner plusieurs espèces différentes de rongeurs :
-les Hamsters nains (genre Allocricetulus)[1] ;
-les Hamsters nains gris (genre Cricetulus)[1] ;
-l'Hamster nain de Sokolov (C. sokolovi)[1] ;
-les Hamsters nains (genre Phodopus)[1] ;
-l'Hamster nain de Campbell (P. campbelli)[1] ;
-l'Hamster nain de Roborowski (P. roborovskii)[1] ;
-l'Hamster nain de Djoungarie (P. sungorus)[1].
+les Hamsters nains (genre Allocricetulus) ;
+les Hamsters nains gris (genre Cricetulus) ;
+l'Hamster nain de Sokolov (C. sokolovi) ;
+les Hamsters nains (genre Phodopus) ;
+l'Hamster nain de Campbell (P. campbelli) ;
+l'Hamster nain de Roborowski (P. roborovskii) ;
+l'Hamster nain de Djoungarie (P. sungorus).
 			Hamster de Chine (Cricetulus griseus)
 			Hamster nain de Campbell (Phodopus campbelli)
 			Hamster nain de Roborowski (P. roborovskii)
@@ -522,7 +534,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ a b c d e f et g (la + en + de + fr + it) Murray Wrobel, Elsevier's Dictionary of Mammals, Elsevier, 18 novembre 2006, 868 p. (ISBN 008048882X et 9780080488820, lire en ligne).
